--- a/2022/data/processed/CARICOOS.xlsx
+++ b/2022/data/processed/CARICOOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2022\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2336768-C50D-4721-96D7-1B3DC321A97B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504337DD-2750-42D3-80A2-987C762D9934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
   </sheetPr>
   <dimension ref="A1:X994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
